--- a/fhir/ig/tei/0.2.1/StructureDefinition-AppointmentAgendarLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-AppointmentAgendarLE.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3782" uniqueCount="562">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3782" uniqueCount="563">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-25T17:22:41-04:00</t>
+    <t>2024-07-15T11:25:06-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -483,6 +483,9 @@
   </si>
   <si>
     <t>Extensión compleja, donde se indica si el paciente fue Contactado[true|false] o MotivoNoContactabilidad si la anterior fue false</t>
+  </si>
+  <si>
+    <t>Extension ContactadoLE</t>
   </si>
   <si>
     <t>Appointment.modifierExtension</t>
@@ -1673,7 +1676,7 @@
     <t>Appointment.participant:patientLE.status</t>
   </si>
   <si>
-    <t xml:space="preserve">Estado de la cita, este puede ser "accepted | declined | tentative | needs-action" </t>
+    <t>Estado de la cita, este puede ser "accepted | declined | tentative | needs-action"</t>
   </si>
   <si>
     <t>Appointment.participant:patientLE.period</t>
@@ -3336,7 +3339,7 @@
         <v>149</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -3419,14 +3422,14 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
@@ -3448,16 +3451,16 @@
         <v>133</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>77</v>
@@ -3506,7 +3509,7 @@
         <v>77</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>78</v>
@@ -3538,10 +3541,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3564,13 +3567,13 @@
         <v>89</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -3621,7 +3624,7 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>78</v>
@@ -3636,27 +3639,27 @@
         <v>100</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AO13" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3679,13 +3682,13 @@
         <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -3736,7 +3739,7 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -3754,7 +3757,7 @@
         <v>77</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>77</v>
@@ -3768,14 +3771,14 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -3797,13 +3800,13 @@
         <v>133</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3844,7 +3847,7 @@
         <v>136</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AD15" t="s" s="2">
         <v>77</v>
@@ -3853,7 +3856,7 @@
         <v>137</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>78</v>
@@ -3871,7 +3874,7 @@
         <v>77</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>77</v>
@@ -3885,10 +3888,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3914,16 +3917,16 @@
         <v>108</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>77</v>
@@ -3948,13 +3951,13 @@
         <v>77</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>77</v>
@@ -3972,7 +3975,7 @@
         <v>77</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>78</v>
@@ -3990,7 +3993,7 @@
         <v>77</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>77</v>
@@ -4004,10 +4007,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -4030,19 +4033,19 @@
         <v>89</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>77</v>
@@ -4067,13 +4070,13 @@
         <v>77</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>77</v>
@@ -4091,7 +4094,7 @@
         <v>77</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>78</v>
@@ -4109,7 +4112,7 @@
         <v>77</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>77</v>
@@ -4118,15 +4121,15 @@
         <v>77</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4152,16 +4155,16 @@
         <v>102</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>77</v>
@@ -4174,7 +4177,7 @@
         <v>77</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="U18" t="s" s="2">
         <v>77</v>
@@ -4210,7 +4213,7 @@
         <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>78</v>
@@ -4228,7 +4231,7 @@
         <v>77</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>77</v>
@@ -4237,15 +4240,15 @@
         <v>77</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4268,16 +4271,16 @@
         <v>89</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -4291,7 +4294,7 @@
         <v>77</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="U19" t="s" s="2">
         <v>77</v>
@@ -4327,7 +4330,7 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -4345,7 +4348,7 @@
         <v>77</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>77</v>
@@ -4354,15 +4357,15 @@
         <v>77</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4385,13 +4388,13 @@
         <v>89</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4442,7 +4445,7 @@
         <v>77</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>78</v>
@@ -4460,7 +4463,7 @@
         <v>77</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>77</v>
@@ -4469,15 +4472,15 @@
         <v>77</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4500,16 +4503,16 @@
         <v>89</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4559,7 +4562,7 @@
         <v>77</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
@@ -4577,7 +4580,7 @@
         <v>77</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>77</v>
@@ -4586,15 +4589,15 @@
         <v>77</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4620,13 +4623,13 @@
         <v>108</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4652,13 +4655,13 @@
         <v>77</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>77</v>
@@ -4676,7 +4679,7 @@
         <v>77</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>88</v>
@@ -4691,27 +4694,27 @@
         <v>100</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4734,13 +4737,13 @@
         <v>89</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4767,11 +4770,11 @@
         <v>77</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Y23" s="2"/>
       <c r="Z23" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>77</v>
@@ -4789,7 +4792,7 @@
         <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
@@ -4807,7 +4810,7 @@
         <v>77</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>77</v>
@@ -4821,10 +4824,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4847,13 +4850,13 @@
         <v>77</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4904,7 +4907,7 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -4922,7 +4925,7 @@
         <v>77</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>77</v>
@@ -4936,14 +4939,14 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -4965,13 +4968,13 @@
         <v>133</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -5012,7 +5015,7 @@
         <v>136</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AD25" t="s" s="2">
         <v>77</v>
@@ -5021,7 +5024,7 @@
         <v>137</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
@@ -5039,7 +5042,7 @@
         <v>77</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>77</v>
@@ -5053,10 +5056,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5079,19 +5082,19 @@
         <v>89</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>77</v>
@@ -5140,7 +5143,7 @@
         <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
@@ -5158,7 +5161,7 @@
         <v>77</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>77</v>
@@ -5167,15 +5170,15 @@
         <v>77</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5198,13 +5201,13 @@
         <v>77</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -5255,7 +5258,7 @@
         <v>77</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
@@ -5273,7 +5276,7 @@
         <v>77</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>77</v>
@@ -5287,14 +5290,14 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
@@ -5316,13 +5319,13 @@
         <v>133</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5363,7 +5366,7 @@
         <v>136</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AD28" t="s" s="2">
         <v>77</v>
@@ -5372,7 +5375,7 @@
         <v>137</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
@@ -5390,7 +5393,7 @@
         <v>77</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>77</v>
@@ -5404,10 +5407,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5433,16 +5436,16 @@
         <v>102</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>77</v>
@@ -5452,7 +5455,7 @@
         <v>77</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="T29" t="s" s="2">
         <v>77</v>
@@ -5491,7 +5494,7 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -5509,7 +5512,7 @@
         <v>77</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>77</v>
@@ -5518,15 +5521,15 @@
         <v>77</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5549,16 +5552,16 @@
         <v>89</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5608,7 +5611,7 @@
         <v>77</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
@@ -5626,7 +5629,7 @@
         <v>77</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>77</v>
@@ -5635,15 +5638,15 @@
         <v>77</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5669,14 +5672,14 @@
         <v>108</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>77</v>
@@ -5725,7 +5728,7 @@
         <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
@@ -5743,7 +5746,7 @@
         <v>77</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>77</v>
@@ -5752,15 +5755,15 @@
         <v>77</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5783,17 +5786,17 @@
         <v>89</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>77</v>
@@ -5842,7 +5845,7 @@
         <v>77</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
@@ -5860,7 +5863,7 @@
         <v>77</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>77</v>
@@ -5869,15 +5872,15 @@
         <v>77</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5900,19 +5903,19 @@
         <v>89</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>77</v>
@@ -5961,7 +5964,7 @@
         <v>77</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
@@ -5979,7 +5982,7 @@
         <v>77</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>77</v>
@@ -5988,15 +5991,15 @@
         <v>77</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6019,19 +6022,19 @@
         <v>89</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>77</v>
@@ -6080,7 +6083,7 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
@@ -6098,7 +6101,7 @@
         <v>77</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>77</v>
@@ -6107,15 +6110,15 @@
         <v>77</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6138,13 +6141,13 @@
         <v>89</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -6171,11 +6174,11 @@
         <v>77</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Y35" s="2"/>
       <c r="Z35" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>77</v>
@@ -6193,7 +6196,7 @@
         <v>77</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
@@ -6211,10 +6214,10 @@
         <v>77</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>77</v>
@@ -6225,10 +6228,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6251,16 +6254,16 @@
         <v>89</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -6286,11 +6289,11 @@
         <v>77</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Y36" s="2"/>
       <c r="Z36" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>77</v>
@@ -6308,7 +6311,7 @@
         <v>77</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
@@ -6323,10 +6326,10 @@
         <v>100</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>77</v>
@@ -6340,10 +6343,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6366,13 +6369,13 @@
         <v>89</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -6403,7 +6406,7 @@
       </c>
       <c r="Y37" s="2"/>
       <c r="Z37" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>77</v>
@@ -6421,7 +6424,7 @@
         <v>77</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
@@ -6439,13 +6442,13 @@
         <v>77</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>77</v>
@@ -6453,10 +6456,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6479,13 +6482,13 @@
         <v>89</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6516,7 +6519,7 @@
       </c>
       <c r="Y38" s="2"/>
       <c r="Z38" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>77</v>
@@ -6534,7 +6537,7 @@
         <v>77</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
@@ -6552,24 +6555,24 @@
         <v>77</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6592,13 +6595,13 @@
         <v>77</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6649,7 +6652,7 @@
         <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -6667,7 +6670,7 @@
         <v>77</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>77</v>
@@ -6681,14 +6684,14 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -6710,13 +6713,13 @@
         <v>133</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6757,7 +6760,7 @@
         <v>136</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AD40" t="s" s="2">
         <v>77</v>
@@ -6766,7 +6769,7 @@
         <v>137</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
@@ -6784,7 +6787,7 @@
         <v>77</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>77</v>
@@ -6798,10 +6801,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6824,19 +6827,19 @@
         <v>89</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>77</v>
@@ -6885,7 +6888,7 @@
         <v>77</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
@@ -6903,7 +6906,7 @@
         <v>77</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>77</v>
@@ -6912,15 +6915,15 @@
         <v>77</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6943,13 +6946,13 @@
         <v>77</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -7000,7 +7003,7 @@
         <v>77</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
@@ -7018,7 +7021,7 @@
         <v>77</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>77</v>
@@ -7032,14 +7035,14 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -7061,13 +7064,13 @@
         <v>133</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -7108,7 +7111,7 @@
         <v>136</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AD43" t="s" s="2">
         <v>77</v>
@@ -7117,7 +7120,7 @@
         <v>137</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
@@ -7135,7 +7138,7 @@
         <v>77</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>77</v>
@@ -7149,10 +7152,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7178,16 +7181,16 @@
         <v>102</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>77</v>
@@ -7236,7 +7239,7 @@
         <v>77</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
@@ -7254,7 +7257,7 @@
         <v>77</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>77</v>
@@ -7263,15 +7266,15 @@
         <v>77</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7294,16 +7297,16 @@
         <v>89</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7353,7 +7356,7 @@
         <v>77</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
@@ -7371,7 +7374,7 @@
         <v>77</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>77</v>
@@ -7380,15 +7383,15 @@
         <v>77</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7414,14 +7417,14 @@
         <v>108</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>77</v>
@@ -7470,7 +7473,7 @@
         <v>77</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
@@ -7488,7 +7491,7 @@
         <v>77</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>77</v>
@@ -7497,15 +7500,15 @@
         <v>77</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7528,17 +7531,17 @@
         <v>89</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>77</v>
@@ -7587,7 +7590,7 @@
         <v>77</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
@@ -7605,7 +7608,7 @@
         <v>77</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>77</v>
@@ -7614,15 +7617,15 @@
         <v>77</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7645,19 +7648,19 @@
         <v>89</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>77</v>
@@ -7706,7 +7709,7 @@
         <v>77</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
@@ -7724,7 +7727,7 @@
         <v>77</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>77</v>
@@ -7733,15 +7736,15 @@
         <v>77</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7764,19 +7767,19 @@
         <v>89</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>77</v>
@@ -7825,7 +7828,7 @@
         <v>77</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
@@ -7843,7 +7846,7 @@
         <v>77</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>77</v>
@@ -7852,15 +7855,15 @@
         <v>77</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7883,13 +7886,13 @@
         <v>89</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7919,10 +7922,10 @@
         <v>112</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>77</v>
@@ -7940,7 +7943,7 @@
         <v>77</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
@@ -7955,10 +7958,10 @@
         <v>100</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>77</v>
@@ -7967,15 +7970,15 @@
         <v>77</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7998,13 +8001,13 @@
         <v>77</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -8055,7 +8058,7 @@
         <v>77</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
@@ -8070,10 +8073,10 @@
         <v>100</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>77</v>
@@ -8087,10 +8090,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8113,16 +8116,16 @@
         <v>77</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -8172,7 +8175,7 @@
         <v>77</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
@@ -8187,27 +8190,27 @@
         <v>100</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8230,13 +8233,13 @@
         <v>77</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -8287,7 +8290,7 @@
         <v>77</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
@@ -8305,24 +8308,24 @@
         <v>77</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8345,13 +8348,13 @@
         <v>77</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -8402,7 +8405,7 @@
         <v>77</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
@@ -8417,16 +8420,16 @@
         <v>100</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>77</v>
@@ -8434,10 +8437,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8460,13 +8463,13 @@
         <v>89</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8517,7 +8520,7 @@
         <v>77</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
@@ -8532,27 +8535,27 @@
         <v>100</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8560,7 +8563,7 @@
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>88</v>
@@ -8575,13 +8578,13 @@
         <v>89</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8632,7 +8635,7 @@
         <v>77</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
@@ -8647,27 +8650,27 @@
         <v>100</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8690,13 +8693,13 @@
         <v>77</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8747,7 +8750,7 @@
         <v>77</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
@@ -8762,13 +8765,13 @@
         <v>100</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>77</v>
@@ -8779,10 +8782,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8805,13 +8808,13 @@
         <v>77</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8862,7 +8865,7 @@
         <v>77</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
@@ -8880,7 +8883,7 @@
         <v>77</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>77</v>
@@ -8894,10 +8897,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8920,16 +8923,16 @@
         <v>77</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -8979,7 +8982,7 @@
         <v>77</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
@@ -8994,13 +8997,13 @@
         <v>100</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>77</v>
@@ -9011,10 +9014,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9037,16 +9040,16 @@
         <v>77</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -9096,7 +9099,7 @@
         <v>77</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
@@ -9111,27 +9114,27 @@
         <v>100</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AO60" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9154,13 +9157,13 @@
         <v>77</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -9211,7 +9214,7 @@
         <v>77</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
@@ -9229,28 +9232,28 @@
         <v>77</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AO61" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
@@ -9269,13 +9272,13 @@
         <v>77</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -9326,7 +9329,7 @@
         <v>77</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
@@ -9341,10 +9344,10 @@
         <v>100</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>77</v>
@@ -9358,10 +9361,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9369,10 +9372,10 @@
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>89</v>
@@ -9384,13 +9387,13 @@
         <v>77</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -9429,10 +9432,10 @@
         <v>77</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AC63" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AD63" t="s" s="2">
         <v>77</v>
@@ -9441,7 +9444,7 @@
         <v>137</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>88</v>
@@ -9453,30 +9456,30 @@
         <v>77</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AO63" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9499,13 +9502,13 @@
         <v>77</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -9556,7 +9559,7 @@
         <v>77</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
@@ -9574,7 +9577,7 @@
         <v>77</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>77</v>
@@ -9588,14 +9591,14 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
@@ -9617,13 +9620,13 @@
         <v>133</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -9673,7 +9676,7 @@
         <v>77</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>78</v>
@@ -9691,7 +9694,7 @@
         <v>77</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>77</v>
@@ -9705,14 +9708,14 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
@@ -9734,16 +9737,16 @@
         <v>133</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O66" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>77</v>
@@ -9792,7 +9795,7 @@
         <v>77</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>78</v>
@@ -9824,10 +9827,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9850,16 +9853,16 @@
         <v>89</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -9885,13 +9888,13 @@
         <v>77</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>77</v>
@@ -9909,7 +9912,7 @@
         <v>77</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>78</v>
@@ -9927,24 +9930,24 @@
         <v>77</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AO67" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9967,13 +9970,13 @@
         <v>89</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -10024,7 +10027,7 @@
         <v>77</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>78</v>
@@ -10042,24 +10045,24 @@
         <v>77</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AO68" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10085,10 +10088,10 @@
         <v>108</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -10115,13 +10118,13 @@
         <v>77</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>77</v>
@@ -10139,7 +10142,7 @@
         <v>77</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>78</v>
@@ -10157,10 +10160,10 @@
         <v>77</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>77</v>
@@ -10171,10 +10174,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10200,10 +10203,10 @@
         <v>108</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -10230,13 +10233,13 @@
         <v>77</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>77</v>
@@ -10254,7 +10257,7 @@
         <v>77</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>88</v>
@@ -10272,24 +10275,24 @@
         <v>77</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AO70" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10312,13 +10315,13 @@
         <v>77</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -10369,7 +10372,7 @@
         <v>77</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>78</v>
@@ -10387,7 +10390,7 @@
         <v>77</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>77</v>
@@ -10401,13 +10404,13 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C72" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="D72" t="s" s="2">
         <v>77</v>
@@ -10429,13 +10432,13 @@
         <v>77</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -10486,7 +10489,7 @@
         <v>77</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>88</v>
@@ -10498,30 +10501,30 @@
         <v>77</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AO72" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10544,13 +10547,13 @@
         <v>77</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -10601,7 +10604,7 @@
         <v>77</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>78</v>
@@ -10619,7 +10622,7 @@
         <v>77</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>77</v>
@@ -10633,14 +10636,14 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
@@ -10662,13 +10665,13 @@
         <v>133</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -10718,7 +10721,7 @@
         <v>77</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>78</v>
@@ -10736,7 +10739,7 @@
         <v>77</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>77</v>
@@ -10750,14 +10753,14 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
@@ -10779,16 +10782,16 @@
         <v>133</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O75" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>77</v>
@@ -10837,7 +10840,7 @@
         <v>77</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>78</v>
@@ -10869,10 +10872,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10895,16 +10898,16 @@
         <v>89</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
@@ -10930,13 +10933,13 @@
         <v>77</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="Z76" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AA76" t="s" s="2">
         <v>77</v>
@@ -10954,7 +10957,7 @@
         <v>77</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>78</v>
@@ -10972,24 +10975,24 @@
         <v>77</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AO76" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11012,13 +11015,13 @@
         <v>89</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -11069,7 +11072,7 @@
         <v>77</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>78</v>
@@ -11087,24 +11090,24 @@
         <v>77</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AO77" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11127,13 +11130,13 @@
         <v>77</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
@@ -11184,7 +11187,7 @@
         <v>77</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>78</v>
@@ -11202,7 +11205,7 @@
         <v>77</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>77</v>
@@ -11216,14 +11219,14 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
@@ -11245,13 +11248,13 @@
         <v>133</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
@@ -11292,7 +11295,7 @@
         <v>136</v>
       </c>
       <c r="AC79" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AD79" t="s" s="2">
         <v>77</v>
@@ -11301,7 +11304,7 @@
         <v>137</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>78</v>
@@ -11319,7 +11322,7 @@
         <v>77</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>77</v>
@@ -11333,10 +11336,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11359,16 +11362,16 @@
         <v>89</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
@@ -11418,7 +11421,7 @@
         <v>77</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>78</v>
@@ -11427,7 +11430,7 @@
         <v>88</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>100</v>
@@ -11450,10 +11453,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11479,13 +11482,13 @@
         <v>102</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
@@ -11496,7 +11499,7 @@
         <v>77</v>
       </c>
       <c r="S81" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="T81" t="s" s="2">
         <v>77</v>
@@ -11511,13 +11514,13 @@
         <v>77</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="Z81" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AA81" t="s" s="2">
         <v>77</v>
@@ -11535,7 +11538,7 @@
         <v>77</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>78</v>
@@ -11567,10 +11570,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11593,16 +11596,16 @@
         <v>89</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
@@ -11652,7 +11655,7 @@
         <v>77</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>78</v>
@@ -11670,7 +11673,7 @@
         <v>77</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>77</v>
@@ -11684,10 +11687,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11710,16 +11713,16 @@
         <v>89</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
@@ -11769,7 +11772,7 @@
         <v>77</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>78</v>
@@ -11801,10 +11804,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11830,10 +11833,10 @@
         <v>108</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" s="2"/>
@@ -11860,13 +11863,13 @@
         <v>77</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="Z84" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AA84" t="s" s="2">
         <v>77</v>
@@ -11884,7 +11887,7 @@
         <v>77</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>78</v>
@@ -11902,10 +11905,10 @@
         <v>77</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>77</v>
@@ -11916,10 +11919,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11945,10 +11948,10 @@
         <v>108</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
@@ -11975,13 +11978,13 @@
         <v>77</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="Z85" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AA85" t="s" s="2">
         <v>77</v>
@@ -11999,7 +12002,7 @@
         <v>77</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>88</v>
@@ -12017,24 +12020,24 @@
         <v>77</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AO85" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12057,13 +12060,13 @@
         <v>77</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" s="2"/>
@@ -12114,7 +12117,7 @@
         <v>77</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>78</v>
@@ -12132,7 +12135,7 @@
         <v>77</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>77</v>
@@ -12146,13 +12149,13 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C87" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="D87" t="s" s="2">
         <v>77</v>
@@ -12174,13 +12177,13 @@
         <v>77</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
@@ -12231,7 +12234,7 @@
         <v>77</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>88</v>
@@ -12243,30 +12246,30 @@
         <v>77</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AO87" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12289,13 +12292,13 @@
         <v>77</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" s="2"/>
@@ -12346,7 +12349,7 @@
         <v>77</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>78</v>
@@ -12364,7 +12367,7 @@
         <v>77</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>77</v>
@@ -12378,14 +12381,14 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
@@ -12407,13 +12410,13 @@
         <v>133</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
@@ -12463,7 +12466,7 @@
         <v>77</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>78</v>
@@ -12481,7 +12484,7 @@
         <v>77</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>77</v>
@@ -12495,14 +12498,14 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
@@ -12524,16 +12527,16 @@
         <v>133</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O90" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>77</v>
@@ -12582,7 +12585,7 @@
         <v>77</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>78</v>
@@ -12614,10 +12617,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12640,16 +12643,16 @@
         <v>89</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
@@ -12675,13 +12678,13 @@
         <v>77</v>
       </c>
       <c r="X91" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Y91" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="Z91" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AA91" t="s" s="2">
         <v>77</v>
@@ -12699,7 +12702,7 @@
         <v>77</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>78</v>
@@ -12717,24 +12720,24 @@
         <v>77</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AO91" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -12757,13 +12760,13 @@
         <v>89</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" s="2"/>
@@ -12814,7 +12817,7 @@
         <v>77</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>78</v>
@@ -12832,24 +12835,24 @@
         <v>77</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AO92" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -12872,13 +12875,13 @@
         <v>77</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" s="2"/>
@@ -12929,7 +12932,7 @@
         <v>77</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>78</v>
@@ -12947,7 +12950,7 @@
         <v>77</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>77</v>
@@ -12961,14 +12964,14 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" t="s" s="2">
@@ -12990,13 +12993,13 @@
         <v>133</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
@@ -13037,7 +13040,7 @@
         <v>136</v>
       </c>
       <c r="AC94" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AD94" t="s" s="2">
         <v>77</v>
@@ -13046,7 +13049,7 @@
         <v>137</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>78</v>
@@ -13064,7 +13067,7 @@
         <v>77</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AM94" t="s" s="2">
         <v>77</v>
@@ -13078,10 +13081,10 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13104,16 +13107,16 @@
         <v>89</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
@@ -13163,7 +13166,7 @@
         <v>77</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>78</v>
@@ -13172,7 +13175,7 @@
         <v>88</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AJ95" t="s" s="2">
         <v>100</v>
@@ -13195,10 +13198,10 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13224,13 +13227,13 @@
         <v>102</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="O96" s="2"/>
       <c r="P96" t="s" s="2">
@@ -13241,7 +13244,7 @@
         <v>77</v>
       </c>
       <c r="S96" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="T96" t="s" s="2">
         <v>77</v>
@@ -13256,13 +13259,13 @@
         <v>77</v>
       </c>
       <c r="X96" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Y96" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="Z96" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AA96" t="s" s="2">
         <v>77</v>
@@ -13280,7 +13283,7 @@
         <v>77</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>78</v>
@@ -13312,10 +13315,10 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -13338,16 +13341,16 @@
         <v>89</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="O97" s="2"/>
       <c r="P97" t="s" s="2">
@@ -13397,7 +13400,7 @@
         <v>77</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>78</v>
@@ -13415,7 +13418,7 @@
         <v>77</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="AM97" t="s" s="2">
         <v>77</v>
@@ -13429,10 +13432,10 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -13455,16 +13458,16 @@
         <v>89</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="O98" s="2"/>
       <c r="P98" t="s" s="2">
@@ -13514,7 +13517,7 @@
         <v>77</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>78</v>
@@ -13546,10 +13549,10 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -13575,10 +13578,10 @@
         <v>108</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" s="2"/>
@@ -13605,13 +13608,13 @@
         <v>77</v>
       </c>
       <c r="X99" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Y99" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="Z99" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AA99" t="s" s="2">
         <v>77</v>
@@ -13629,7 +13632,7 @@
         <v>77</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>78</v>
@@ -13647,10 +13650,10 @@
         <v>77</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AN99" t="s" s="2">
         <v>77</v>
@@ -13661,10 +13664,10 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -13690,10 +13693,10 @@
         <v>108</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" s="2"/>
@@ -13705,7 +13708,7 @@
         <v>77</v>
       </c>
       <c r="S100" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="T100" t="s" s="2">
         <v>77</v>
@@ -13720,13 +13723,13 @@
         <v>77</v>
       </c>
       <c r="X100" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Y100" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="Z100" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AA100" t="s" s="2">
         <v>77</v>
@@ -13744,7 +13747,7 @@
         <v>77</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>88</v>
@@ -13762,24 +13765,24 @@
         <v>77</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AN100" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AO100" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -13802,13 +13805,13 @@
         <v>77</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" s="2"/>
@@ -13859,7 +13862,7 @@
         <v>77</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>78</v>
@@ -13877,7 +13880,7 @@
         <v>77</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AM101" t="s" s="2">
         <v>77</v>
@@ -13891,10 +13894,10 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -13917,16 +13920,16 @@
         <v>77</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
@@ -13976,7 +13979,7 @@
         <v>77</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>78</v>
@@ -13991,10 +13994,10 @@
         <v>100</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="AM102" t="s" s="2">
         <v>77</v>
@@ -14003,7 +14006,7 @@
         <v>77</v>
       </c>
       <c r="AO102" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
   </sheetData>

--- a/fhir/ig/tei/0.2.1/StructureDefinition-AppointmentAgendarLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-AppointmentAgendarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-15T11:25:06-04:00</t>
+    <t>2024-07-19T15:20:36-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/ig/tei/0.2.1/StructureDefinition-AppointmentAgendarLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-AppointmentAgendarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-19T15:20:36-04:00</t>
+    <t>2024-07-29T12:02:43-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -294,10 +294,10 @@
 </t>
   </si>
   <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+    <t>Id temporal necesario para identificar el recurso</t>
+  </si>
+  <si>
+    <t>El Id que envíe desde la aplicación es temporal, el definitivo es creado por el servidor</t>
   </si>
   <si>
     <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
@@ -2386,13 +2386,13 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G3" t="s" s="2">
         <v>88</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="I3" t="s" s="2">
         <v>77</v>

--- a/fhir/ig/tei/0.2.1/StructureDefinition-AppointmentAgendarLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-AppointmentAgendarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-29T12:02:43-04:00</t>
+    <t>2024-10-22T09:59:13-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/ig/tei/0.2.1/StructureDefinition-AppointmentAgendarLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-AppointmentAgendarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-22T09:59:13-05:00</t>
+    <t>2024-10-28T18:15:52-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/ig/tei/0.2.1/StructureDefinition-AppointmentAgendarLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-AppointmentAgendarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-28T18:15:52-03:00</t>
+    <t>2025-04-11T11:42:22-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/ig/tei/0.2.1/StructureDefinition-AppointmentAgendarLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-AppointmentAgendarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-11T11:42:22-04:00</t>
+    <t>2025-06-19T10:06:59-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/ig/tei/0.2.1/StructureDefinition-AppointmentAgendarLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-AppointmentAgendarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-19T10:06:59-04:00</t>
+    <t>2025-07-24T21:35:10-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/ig/tei/0.2.1/StructureDefinition-AppointmentAgendarLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-AppointmentAgendarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-24T21:35:10-04:00</t>
+    <t>2025-12-05T09:23:56-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -367,7 +367,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -628,7 +628,7 @@
     <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -713,7 +713,7 @@
     <t>Appointment.identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -781,7 +781,7 @@
     <t>example</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/appointment-cancellation-reason</t>
+    <t>http://hl7.org/fhir/ValueSet/appointment-cancellation-reason|4.0.1</t>
   </si>
   <si>
     <t>Appointment.cancelationReason.id</t>
@@ -975,7 +975,7 @@
     <t>A broad categorization of the service that is to be performed during this appointment.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/service-category</t>
+    <t>http://hl7.org/fhir/ValueSet/service-category|4.0.1</t>
   </si>
   <si>
     <t>n/a, might be inferred from the ServiceDeliveryLocation</t>
@@ -996,7 +996,7 @@
     <t>For a provider to provider appointment the code "FOLLOWUP" may be appropriate, as this is expected to be discussing some patient that was seen in the past.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/service-type</t>
+    <t>http://hl7.org/fhir/ValueSet/service-type|4.0.1</t>
   </si>
   <si>
     <t>Request.code</t>
@@ -1011,7 +1011,7 @@
     <t>The specialty of a practitioner that would be required to perform the service requested in this appointment.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/c80-practice-codes</t>
+    <t>http://hl7.org/fhir/ValueSet/c80-practice-codes|4.0.1</t>
   </si>
   <si>
     <t>.performer.AssignedPerson.code</t>
@@ -1095,7 +1095,7 @@
     <t>The Reason for the appointment to take place.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/encounter-reason</t>
+    <t>http://hl7.org/fhir/ValueSet/encounter-reason|4.0.1</t>
   </si>
   <si>
     <t>Request.reasonCode</t>
@@ -1110,7 +1110,7 @@
     <t>Appointment.reasonReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Condition|Procedure|Observation|ImmunizationRecommendation)
+    <t xml:space="preserve">Reference(Condition|4.0.1|Procedure|4.0.1|Observation|4.0.1|ImmunizationRecommendation|4.0.1)
 </t>
   </si>
   <si>
@@ -1177,7 +1177,7 @@
     <t>Appointment.supportingInformation</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource)
+    <t xml:space="preserve">Reference(Resource|4.0.1)
 </t>
   </si>
   <si>
@@ -1270,7 +1270,7 @@
     <t>Appointment.slot</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Slot)
+    <t xml:space="preserve">Reference(Slot|4.0.1)
 </t>
   </si>
   <si>
@@ -1350,7 +1350,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(ServiceRequest)
+    <t xml:space="preserve">Reference(ServiceRequest|4.0.1)
 </t>
   </si>
   <si>
@@ -1447,7 +1447,7 @@
     <t>Role of participant in encounter.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/encounter-participant-type</t>
+    <t>http://hl7.org/fhir/ValueSet/encounter-participant-type|4.0.1</t>
   </si>
   <si>
     <t>(performer | reusableDevice | subject | location).@typeCode</t>
@@ -1622,7 +1622,7 @@
     <t>Aa resource (or, for logical models, the URI of the logical model).</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/resource-types</t>
+    <t>http://hl7.org/fhir/ValueSet/resource-types|4.0.1</t>
   </si>
   <si>
     <t>Reference.type</t>
@@ -2091,17 +2091,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="56.30078125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="48.08984375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="25.30078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="51.3125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="43.796875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="23.21484375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.55078125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="154.69140625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="139.84765625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2110,27 +2110,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.1875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="95.3984375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="57.26953125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="54.3203125" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="33.4296875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="34.80859375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.08984375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="85.70703125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="55.88671875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="49.1328125" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.44140625" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="30.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="8.51953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="8.859375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="32.98046875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="104.51171875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="150.140625" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="33.05078125" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="77.2265625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="30.0234375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="95.12890625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="136.0625" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="29.45703125" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="67.5390625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
